--- a/Test/MC_Ssf/T1/Sensors_data_1000004.xlsx
+++ b/Test/MC_Ssf/T1/Sensors_data_1000004.xlsx
@@ -475,13 +475,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.5710136320497725</v>
+        <v>-0.3669933758554951</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01713991130584842</v>
+        <v>0.05461745866144622</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7067949792309001</v>
+        <v>0.9731715163593772</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.3040763472214261</v>
+        <v>0.747391887119063</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03508312619439049</v>
+        <v>0.01273456113547058</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6561112809234589</v>
+        <v>0.2795885986420187</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -525,13 +525,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-1.578708856811861</v>
+        <v>-1.242724078709553</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09851666844137152</v>
+        <v>0.08568074828768055</v>
       </c>
       <c r="E4" t="n">
-        <v>0.596075176655159</v>
+        <v>0.5685425271583823</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -550,13 +550,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.3383315209047789</v>
+        <v>0.9595313709914527</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0276840947917654</v>
+        <v>0.001693200442459315</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3282161430328723</v>
+        <v>-0.001829405764459483</v>
       </c>
       <c r="F5" t="n">
         <v>2</v>
@@ -575,13 +575,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.6500929410395861</v>
+        <v>-0.005646214313771658</v>
       </c>
       <c r="D6" t="n">
-        <v>0.008807557018573085</v>
+        <v>0.02531325432357958</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6722076455203675</v>
+        <v>-0.01863920116605455</v>
       </c>
       <c r="F6" t="n">
         <v>3</v>
@@ -600,13 +600,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.989432351216686</v>
+        <v>0.9639948963706857</v>
       </c>
       <c r="D7" t="n">
-        <v>0.000534219101993387</v>
+        <v>0.001820141312644877</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.00508038802026789</v>
+        <v>-0.001855203375527026</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
